--- a/Тренажеры/Глаголы/Отдельно/8. Тренажер глаг können.xlsx
+++ b/Тренажеры/Глаголы/Отдельно/8. Тренажер глаг können.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="7575" windowHeight="1125"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="7575" windowHeight="1125" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Тренажер местоимений исходный" sheetId="8" r:id="rId1"/>
+    <sheet name="Тренажер местоимений номенатив" sheetId="8" r:id="rId1"/>
+    <sheet name="преетритум" sheetId="9" r:id="rId2"/>
+    <sheet name="Начальный набор" sheetId="10" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="23">
   <si>
     <t xml:space="preserve"> -. -. -. -. -. -. -. -.</t>
   </si>
@@ -47,6 +49,42 @@
   </si>
   <si>
     <t xml:space="preserve">Вы (один на Вы) можете </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вы (много на Вы) могли </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вы (один на Вы) могли </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мы могли  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ты мог   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Он мог  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Она могла  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оно могло  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вы (много на ты) могли </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я могу  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вы (много на ты) моглае </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я мог </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Они могли  </t>
   </si>
 </sst>
 </file>
@@ -91,7 +129,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -390,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -404,7 +444,7 @@
     <row r="1" spans="1:4">
       <c r="A1">
         <f t="shared" ref="A1:A40" ca="1" si="0">RAND()</f>
-        <v>0.44456490648407687</v>
+        <v>0.49314355816856925</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -419,7 +459,7 @@
     <row r="2" spans="1:4">
       <c r="A2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32868815106631022</v>
+        <v>0.89989807246614317</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -434,7 +474,7 @@
     <row r="3" spans="1:4">
       <c r="A3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1885314306571839E-2</v>
+        <v>0.61119012789376925</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -449,7 +489,7 @@
     <row r="4" spans="1:4">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56301346945577624</v>
+        <v>0.45336163970718157</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -464,7 +504,7 @@
     <row r="5" spans="1:4">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86707597082137955</v>
+        <v>0.34600068623638713</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -479,7 +519,7 @@
     <row r="6" spans="1:4">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78675094122242895</v>
+        <v>0.20719143137217078</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -494,7 +534,7 @@
     <row r="7" spans="1:4">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99178910722718361</v>
+        <v>0.6366507860460846</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -509,7 +549,7 @@
     <row r="8" spans="1:4">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47045521534553369</v>
+        <v>0.20140965422775103</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -524,7 +564,7 @@
     <row r="9" spans="1:4">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65331418646729311</v>
+        <v>0.42176185589850346</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -539,7 +579,7 @@
     <row r="10" spans="1:4">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17217568361577928</v>
+        <v>0.63710163499264461</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -554,7 +594,7 @@
     <row r="11" spans="1:4">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50938759325577365</v>
+        <v>0.59409029767222843</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -569,7 +609,7 @@
     <row r="12" spans="1:4">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92370681979505931</v>
+        <v>0.72373008633211899</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -584,7 +624,7 @@
     <row r="13" spans="1:4">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28707583604849152</v>
+        <v>0.88613955340167916</v>
       </c>
       <c r="B13">
         <v>13</v>
@@ -599,7 +639,7 @@
     <row r="14" spans="1:4">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64781091017288284</v>
+        <v>0.20983361564733283</v>
       </c>
       <c r="B14">
         <v>14</v>
@@ -614,7 +654,7 @@
     <row r="15" spans="1:4">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6621336631981567</v>
+        <v>0.5750951012565102</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -629,7 +669,7 @@
     <row r="16" spans="1:4">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.290434698615603</v>
+        <v>0.61992915734956378</v>
       </c>
       <c r="B16">
         <v>16</v>
@@ -644,7 +684,7 @@
     <row r="17" spans="1:4">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93180497624231151</v>
+        <v>0.17758511427297874</v>
       </c>
       <c r="B17">
         <v>17</v>
@@ -659,7 +699,7 @@
     <row r="18" spans="1:4">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>7.885318385322293E-2</v>
+        <v>0.961074404245986</v>
       </c>
       <c r="B18">
         <v>18</v>
@@ -674,7 +714,7 @@
     <row r="19" spans="1:4">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17324806745812449</v>
+        <v>0.65426087542342248</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -689,7 +729,7 @@
     <row r="20" spans="1:4">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87279866709726228</v>
+        <v>0.84992443984487975</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -704,7 +744,7 @@
     <row r="21" spans="1:4">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20678505044480677</v>
+        <v>0.83081933452372625</v>
       </c>
       <c r="B21">
         <v>21</v>
@@ -719,7 +759,7 @@
     <row r="22" spans="1:4">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85459369695640564</v>
+        <v>0.91031446568846608</v>
       </c>
       <c r="B22">
         <v>22</v>
@@ -734,7 +774,7 @@
     <row r="23" spans="1:4">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4722602847158761E-2</v>
+        <v>0.21194810057733182</v>
       </c>
       <c r="B23">
         <v>23</v>
@@ -749,7 +789,7 @@
     <row r="24" spans="1:4">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9477247735454295</v>
+        <v>0.98194842447083741</v>
       </c>
       <c r="B24">
         <v>24</v>
@@ -764,7 +804,7 @@
     <row r="25" spans="1:4">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19244733972876471</v>
+        <v>0.23368844404840949</v>
       </c>
       <c r="B25">
         <v>25</v>
@@ -779,7 +819,7 @@
     <row r="26" spans="1:4">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76782218747029063</v>
+        <v>0.75211754662056229</v>
       </c>
       <c r="B26">
         <v>26</v>
@@ -794,7 +834,7 @@
     <row r="27" spans="1:4">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3175273633565787E-2</v>
+        <v>0.27614658669007408</v>
       </c>
       <c r="B27">
         <v>27</v>
@@ -809,7 +849,7 @@
     <row r="28" spans="1:4">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0914180949920516E-2</v>
+        <v>0.71092332079716769</v>
       </c>
       <c r="B28">
         <v>28</v>
@@ -824,7 +864,7 @@
     <row r="29" spans="1:4">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55561092097321829</v>
+        <v>0.28130051441259463</v>
       </c>
       <c r="B29">
         <v>29</v>
@@ -839,7 +879,7 @@
     <row r="30" spans="1:4">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69276781983094526</v>
+        <v>0.6966824898589179</v>
       </c>
       <c r="B30">
         <v>30</v>
@@ -854,7 +894,7 @@
     <row r="31" spans="1:4">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6390576888627955E-2</v>
+        <v>0.19170954855458788</v>
       </c>
       <c r="B31">
         <v>31</v>
@@ -869,7 +909,7 @@
     <row r="32" spans="1:4">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73446738974918624</v>
+        <v>0.3175114696489203</v>
       </c>
       <c r="B32">
         <v>32</v>
@@ -884,7 +924,7 @@
     <row r="33" spans="1:4">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21917994033239596</v>
+        <v>0.42697809398269637</v>
       </c>
       <c r="B33">
         <v>33</v>
@@ -899,7 +939,7 @@
     <row r="34" spans="1:4">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15047694845862036</v>
+        <v>0.64063414069793634</v>
       </c>
       <c r="B34">
         <v>34</v>
@@ -914,7 +954,7 @@
     <row r="35" spans="1:4">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34657119900040989</v>
+        <v>0.32546512296477315</v>
       </c>
       <c r="B35">
         <v>35</v>
@@ -929,7 +969,7 @@
     <row r="36" spans="1:4">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88528920566993308</v>
+        <v>0.75463422893899246</v>
       </c>
       <c r="B36">
         <v>36</v>
@@ -944,7 +984,7 @@
     <row r="37" spans="1:4">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16524740920389758</v>
+        <v>0.70720276617145572</v>
       </c>
       <c r="B37">
         <v>37</v>
@@ -959,7 +999,7 @@
     <row r="38" spans="1:4">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64870237547353327</v>
+        <v>0.33520222369320773</v>
       </c>
       <c r="B38">
         <v>38</v>
@@ -974,7 +1014,7 @@
     <row r="39" spans="1:4">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5396908234939517</v>
+        <v>0.53378645663624025</v>
       </c>
       <c r="B39">
         <v>39</v>
@@ -989,7 +1029,7 @@
     <row r="40" spans="1:4">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30645246612646204</v>
+        <v>0.61904658257663003</v>
       </c>
       <c r="B40">
         <v>40</v>
@@ -1005,4 +1045,727 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="67.7109375" customWidth="1"/>
+    <col min="3" max="3" width="62" customWidth="1"/>
+    <col min="4" max="4" width="64.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21">
+      <c r="A1" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.71650981159673344</v>
+      </c>
+      <c r="B1" s="2">
+        <v>33</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="21">
+      <c r="A2" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.4504811044138235</v>
+      </c>
+      <c r="B2" s="2">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21">
+      <c r="A3" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.48555324435721881</v>
+      </c>
+      <c r="B3" s="2">
+        <v>36</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="21">
+      <c r="A4" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.55640973621416112</v>
+      </c>
+      <c r="B4" s="2">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21">
+      <c r="A5" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.67642093757924915</v>
+      </c>
+      <c r="B5" s="2">
+        <v>39</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="21">
+      <c r="A6" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.44363165915056202</v>
+      </c>
+      <c r="B6" s="2">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21">
+      <c r="A7" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.51156807109671654</v>
+      </c>
+      <c r="B7" s="2">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21">
+      <c r="A8" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.25328308344852246</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21">
+      <c r="A9" s="2">
+        <f ca="1">RAND()</f>
+        <v>8.3651660514816317E-3</v>
+      </c>
+      <c r="B9" s="2">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21">
+      <c r="A10" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.78526996955657768</v>
+      </c>
+      <c r="B10" s="2">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21">
+      <c r="A11" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.16328814151717652</v>
+      </c>
+      <c r="B11" s="2">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="21">
+      <c r="A12" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.26365909669524257</v>
+      </c>
+      <c r="B12" s="2">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="21">
+      <c r="A13" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.97160925971230672</v>
+      </c>
+      <c r="B13" s="2">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="21">
+      <c r="A14" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.40200389885890431</v>
+      </c>
+      <c r="B14" s="2">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="21">
+      <c r="A15" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.81470916057783982</v>
+      </c>
+      <c r="B15" s="2">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="21">
+      <c r="A16" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.488209135655367</v>
+      </c>
+      <c r="B16" s="2">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="21">
+      <c r="A17" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.15677721151550728</v>
+      </c>
+      <c r="B17" s="2">
+        <v>25</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="21">
+      <c r="A18" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.28215449767908396</v>
+      </c>
+      <c r="B18" s="2">
+        <v>14</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="21">
+      <c r="A19" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.91050440699381019</v>
+      </c>
+      <c r="B19" s="2">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="21">
+      <c r="A20" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.17390529911080499</v>
+      </c>
+      <c r="B20" s="2">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="21">
+      <c r="A21" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.94768758972282519</v>
+      </c>
+      <c r="B21" s="2">
+        <v>23</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="21">
+      <c r="A22" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.95572234553688329</v>
+      </c>
+      <c r="B22" s="2">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="21">
+      <c r="A23" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.26826423382606168</v>
+      </c>
+      <c r="B23" s="2">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="21">
+      <c r="A24" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.61948773477611407</v>
+      </c>
+      <c r="B24" s="2">
+        <v>30</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="21">
+      <c r="A25" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.35100184868855999</v>
+      </c>
+      <c r="B25" s="2">
+        <v>32</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="21">
+      <c r="A26" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.80074127992259125</v>
+      </c>
+      <c r="B26" s="2">
+        <v>7</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="21">
+      <c r="A27" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.89203844759027495</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="21">
+      <c r="A28" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.97538034602439527</v>
+      </c>
+      <c r="B28" s="2">
+        <v>38</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="21">
+      <c r="A29" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.92213038168497463</v>
+      </c>
+      <c r="B29" s="2">
+        <v>15</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="21">
+      <c r="A30" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.4765337297628236</v>
+      </c>
+      <c r="B30" s="2">
+        <v>8</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="21">
+      <c r="A31" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.68017371699388818</v>
+      </c>
+      <c r="B31" s="2">
+        <v>3</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="21">
+      <c r="A32" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.41149390121723717</v>
+      </c>
+      <c r="B32" s="2">
+        <v>6</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="21">
+      <c r="A33" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.1626621651591329</v>
+      </c>
+      <c r="B33" s="2">
+        <v>24</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="21">
+      <c r="A34" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.65361905001908016</v>
+      </c>
+      <c r="B34" s="2">
+        <v>40</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="21">
+      <c r="A35" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.94631436224893317</v>
+      </c>
+      <c r="B35" s="2">
+        <v>29</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="21">
+      <c r="A36" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.29362640592044098</v>
+      </c>
+      <c r="B36" s="2">
+        <v>17</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="21">
+      <c r="A37" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.66211937512752783</v>
+      </c>
+      <c r="B37" s="2">
+        <v>37</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="21">
+      <c r="A38" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.76810168154450942</v>
+      </c>
+      <c r="B38" s="2">
+        <v>2</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="21">
+      <c r="A39" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.18667179528084477</v>
+      </c>
+      <c r="B39" s="2">
+        <v>34</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="21">
+      <c r="A40" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.6270281214241884</v>
+      </c>
+      <c r="B40" s="2">
+        <v>35</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:C40">
+    <sortCondition ref="A1:A40"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B37" sqref="B36:B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="42.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="21">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="21">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="21">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="21">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="21">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="21">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="21">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="21">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="21">
+      <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>